--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W15_H100_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5625</v>
+        <v>0.5492063492063493</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8901098901098901</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5562310030395137</v>
+        <v>0.5410334346504559</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6893617021276596</v>
+        <v>0.6961770623742455</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5167173252279635</v>
+        <v>0.4954407294832827</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08959093633078746</v>
+        <v>0.08448042904803056</v>
       </c>
       <c r="J2" t="n">
-        <v>1218.028790116733</v>
+        <v>1122.586765022611</v>
       </c>
       <c r="K2" t="n">
-        <v>2274735.089641747</v>
+        <v>1700950.682875081</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.222493414598</v>
+        <v>1304.2050003259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5722999981398349</v>
+        <v>0.6801840295415251</v>
       </c>
     </row>
   </sheetData>
